--- a/dados_ini.xlsx
+++ b/dados_ini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Seção</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Chave</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Valor</t>
+          <t>Operador</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Porta</t>
         </is>
       </c>
     </row>
@@ -463,17 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NBS\flaviob</t>
+          <t>VITO0166</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ip</t>
+          <t>CX000555</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>172.27.221.53</t>
+          <t>FXLXAXVXIOXxB</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>COM99</t>
         </is>
       </c>
     </row>
@@ -485,17 +495,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NBS\flaviob</t>
+          <t>VITO0166</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>empresa</t>
+          <t>CX000555</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VITO0166</t>
+          <t>FXLXAXVXIOXxB</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>COM99</t>
         </is>
       </c>
     </row>
@@ -507,17 +522,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NBS\flaviob</t>
+          <t>VITO0166</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>terminal</t>
+          <t>CX000555</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CX000555</t>
+          <t>FXLXAXVXIOXxB</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>COM99</t>
         </is>
       </c>
     </row>
@@ -529,17 +549,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NBS\flaviob</t>
+          <t>VITO0166</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>operador</t>
+          <t>CX000555</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FLAVIOB</t>
+          <t>FXLXAXVXIOXxB</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>COM99</t>
         </is>
       </c>
     </row>
@@ -551,15 +576,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NBS\flaviob</t>
+          <t>VITO0166</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>numerocupom</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>CX000555</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FXLXAXVXIOXxB</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>COM99</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -569,541 +603,184 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NBS\flaviob</t>
+          <t>VITO0166</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>datahora</t>
+          <t>CX000555</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25/04/2024 17:49:12</t>
+          <t>FXLXAXVXIOXxB</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>COM99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\ewertonc\CliSisTef.ini</t>
+          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NBS\flaviob</t>
+          <t>VITO0141</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>iniciounumerocupom</t>
+          <t>CX000001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ALCIDES</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>COM9</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\ewertonc\CliSisTef.ini</t>
+          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NBS\flaviob</t>
+          <t>VITO0141</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>aguardandoconfirmacao</t>
+          <t>CX000001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ALCIDES</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>COM9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\ewertonc\CliSisTef.ini</t>
+          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NBS\flaviob</t>
+          <t>VITO0141</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cnpj</t>
+          <t>CX000001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>31371695000141</t>
+          <t>ALCIDES</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>COM9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\ewertonc\CliSisTef.ini</t>
+          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PinPadCompartilhado</t>
+          <t>VITO0141</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>porta</t>
+          <t>CX000001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COM4</t>
+          <t>ALCIDES</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>COM9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\ewertonc\CliSisTef.ini</t>
+          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PinPad</t>
+          <t>VITO0141</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>mensagempadrao</t>
+          <t>CX000001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NBS-SITEF VM MATRIZ09</t>
+          <t>ALCIDES</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>COM9</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\ewertonc\CliSisTef.ini</t>
+          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CliSiTef</t>
+          <t>VITO0141</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>diretoriotrace</t>
+          <t>CX000001</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C:\NBS\SITEF\VITO0141\alcides</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\ewertonc\CliSisTef.ini</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Geral</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>mostradorcomunicacaohabilitado</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\ewertonc\CliSisTef.ini</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Geral</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>transacoesadicionaishabilitadas</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3323;29;42;7;8;9;37;38;3985;</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\ewertonc\CliSisTef.ini</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>CarteirasDigitais</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>habilitaleituraqrcode</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>NBS\alcides</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ip</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>172.27.221.53</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>NBS\alcides</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>empresa</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VITO0141</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>NBS\alcides</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>terminal</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CX000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>NBS\alcides</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>operador</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
           <t>ALCIDES</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>NBS\alcides</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>numerocupom</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>NBS\alcides</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>datahora</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>25/04/2024 17:49:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>NBS\alcides</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>iniciounumerocupom</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>NBS\alcides</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>aguardandoconfirmacao</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>NBS\alcides</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>cnpj</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>31371695000141</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>PinPadCompartilhado</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>porta</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>COM9</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>PinPad</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>mensagempadrao</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>NBS-SITEF VM MATRIZ09</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>CliSiTef</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>diretoriotrace</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>C:\NBS\SITEF\VITO0141\alcides</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Geral</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>mostradorcomunicacaohabilitado</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Geral</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>transacoesadicionaishabilitadas</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3323;29;42;7;8;9;37;38;3985;</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>CarteirasDigitais</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>habilitaleituraqrcode</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>

--- a/dados_ini.xlsx
+++ b/dados_ini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,30 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Arquivo</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Empresa</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Operador</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operador</t>
+          <t>CNPJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Porta</t>
         </is>
@@ -463,25 +468,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\ewertonc\CliSisTef.ini</t>
+          <t>VITO0166</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VITO0166</t>
+          <t>CX000555</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CX000555</t>
+          <t>FXLXAXVXIOXxB</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FXLXAXVXIOXxB</t>
+          <t>313333395000141</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>555.55.555.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>COM99</t>
         </is>
@@ -490,25 +500,30 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\ewertonc\CliSisTef.ini</t>
+          <t>VITO0166</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VITO0166</t>
+          <t>CX000555</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CX000555</t>
+          <t>FXLXAXVXIOXxB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FXLXAXVXIOXxB</t>
+          <t>313333395000141</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>555.55.555.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>COM99</t>
         </is>
@@ -517,25 +532,30 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\ewertonc\CliSisTef.ini</t>
+          <t>VITO0166</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VITO0166</t>
+          <t>CX000555</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CX000555</t>
+          <t>FXLXAXVXIOXxB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FXLXAXVXIOXxB</t>
+          <t>313333395000141</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>555.55.555.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>COM99</t>
         </is>
@@ -544,25 +564,30 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\ewertonc\CliSisTef.ini</t>
+          <t>VITO0166</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VITO0166</t>
+          <t>CX000555</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CX000555</t>
+          <t>FXLXAXVXIOXxB</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FXLXAXVXIOXxB</t>
+          <t>313333395000141</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>555.55.555.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>COM99</t>
         </is>
@@ -571,25 +596,30 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\ewertonc\CliSisTef.ini</t>
+          <t>VITO0166</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VITO0166</t>
+          <t>CX000555</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CX000555</t>
+          <t>FXLXAXVXIOXxB</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FXLXAXVXIOXxB</t>
+          <t>313333395000141</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>555.55.555.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>COM99</t>
         </is>
@@ -598,25 +628,30 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\ewertonc\CliSisTef.ini</t>
+          <t>VITO0166</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VITO0166</t>
+          <t>CX000555</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CX000555</t>
+          <t>FXLXAXVXIOXxB</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FXLXAXVXIOXxB</t>
+          <t>313333395000141</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>555.55.555.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>COM99</t>
         </is>
@@ -625,25 +660,30 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
+          <t>VITO0141</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VITO0141</t>
+          <t>CX000001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CX000001</t>
+          <t>ALCIDES</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ALCIDES</t>
+          <t>31371695000141</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>172.27.221.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>COM9</t>
         </is>
@@ -652,25 +692,30 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
+          <t>VITO0141</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VITO0141</t>
+          <t>CX000001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CX000001</t>
+          <t>ALCIDES</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ALCIDES</t>
+          <t>31371695000141</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
+        <is>
+          <t>172.27.221.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>COM9</t>
         </is>
@@ -679,25 +724,30 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
+          <t>VITO0141</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VITO0141</t>
+          <t>CX000001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CX000001</t>
+          <t>ALCIDES</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ALCIDES</t>
+          <t>31371695000141</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
+        <is>
+          <t>172.27.221.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>COM9</t>
         </is>
@@ -706,25 +756,30 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
+          <t>VITO0141</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VITO0141</t>
+          <t>CX000001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CX000001</t>
+          <t>ALCIDES</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ALCIDES</t>
+          <t>31371695000141</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
+        <is>
+          <t>172.27.221.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>COM9</t>
         </is>
@@ -733,25 +788,30 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
+          <t>VITO0141</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VITO0141</t>
+          <t>CX000001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CX000001</t>
+          <t>ALCIDES</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ALCIDES</t>
+          <t>31371695000141</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
+        <is>
+          <t>172.27.221.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>COM9</t>
         </is>
@@ -760,25 +820,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C:\Users\dti.flaviob\Desktop\Estrutura\VM00213\flaviob\CliSiTef.ini</t>
+          <t>VITO0141</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>VITO0141</t>
+          <t>CX000001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CX000001</t>
+          <t>ALCIDES</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ALCIDES</t>
+          <t>31371695000141</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
+        <is>
+          <t>172.27.221.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>COM9</t>
         </is>
